--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>C1qa</t>
+  </si>
+  <si>
+    <t>Cspg4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>C1qa</t>
-  </si>
-  <si>
-    <t>Cspg4</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7647263333333334</v>
+        <v>140.9462586666667</v>
       </c>
       <c r="H2">
-        <v>2.294179</v>
+        <v>422.838776</v>
       </c>
       <c r="I2">
-        <v>0.004061943890521526</v>
+        <v>0.4325471797977271</v>
       </c>
       <c r="J2">
-        <v>0.004061943890521526</v>
+        <v>0.4325471797977271</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.126590666666667</v>
+        <v>1.415809333333333</v>
       </c>
       <c r="N2">
-        <v>3.379772</v>
+        <v>4.247427999999999</v>
       </c>
       <c r="O2">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="P2">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="Q2">
-        <v>0.8615335496875557</v>
+        <v>199.5530285186808</v>
       </c>
       <c r="R2">
-        <v>7.753801947188</v>
+        <v>1795.977256668128</v>
       </c>
       <c r="S2">
-        <v>0.0003114472259851223</v>
+        <v>0.05079340924497922</v>
       </c>
       <c r="T2">
-        <v>0.0003114472259851223</v>
+        <v>0.05079340924497923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7647263333333334</v>
+        <v>140.9462586666667</v>
       </c>
       <c r="H3">
-        <v>2.294179</v>
+        <v>422.838776</v>
       </c>
       <c r="I3">
-        <v>0.004061943890521526</v>
+        <v>0.4325471797977271</v>
       </c>
       <c r="J3">
-        <v>0.004061943890521526</v>
+        <v>0.4325471797977271</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.540154</v>
       </c>
       <c r="O3">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="P3">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="Q3">
-        <v>4.726047995951778</v>
+        <v>871.0551138012783</v>
       </c>
       <c r="R3">
-        <v>42.53443196356601</v>
+        <v>7839.496024211505</v>
       </c>
       <c r="S3">
-        <v>0.001708481972345167</v>
+        <v>0.2217147953036376</v>
       </c>
       <c r="T3">
-        <v>0.001708481972345167</v>
+        <v>0.2217147953036376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>140.9462586666667</v>
+      </c>
+      <c r="H4">
+        <v>422.838776</v>
+      </c>
+      <c r="I4">
+        <v>0.4325471797977271</v>
+      </c>
+      <c r="J4">
+        <v>0.4325471797977271</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.7647263333333334</v>
-      </c>
-      <c r="H4">
-        <v>2.294179</v>
-      </c>
-      <c r="I4">
-        <v>0.004061943890521526</v>
-      </c>
-      <c r="J4">
-        <v>0.004061943890521526</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>1.528966</v>
+        <v>0.130008</v>
       </c>
       <c r="N4">
-        <v>4.586898</v>
+        <v>0.390024</v>
       </c>
       <c r="O4">
-        <v>0.1040596177090857</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="P4">
-        <v>0.1040596177090858</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="Q4">
-        <v>1.169240562971333</v>
+        <v>18.324141196736</v>
       </c>
       <c r="R4">
-        <v>10.523165066742</v>
+        <v>164.917270770624</v>
       </c>
       <c r="S4">
-        <v>0.0004226843284034265</v>
+        <v>0.004664151728378627</v>
       </c>
       <c r="T4">
-        <v>0.0004226843284034265</v>
+        <v>0.004664151728378627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7647263333333334</v>
+        <v>140.9462586666667</v>
       </c>
       <c r="H5">
-        <v>2.294179</v>
+        <v>422.838776</v>
       </c>
       <c r="I5">
-        <v>0.004061943890521526</v>
+        <v>0.4325471797977271</v>
       </c>
       <c r="J5">
-        <v>0.004061943890521526</v>
+        <v>0.4325471797977271</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.113983333333334</v>
+        <v>3.614693333333333</v>
       </c>
       <c r="N5">
-        <v>15.34195</v>
+        <v>10.84408</v>
       </c>
       <c r="O5">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188437</v>
       </c>
       <c r="P5">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188436</v>
       </c>
       <c r="Q5">
-        <v>3.910797723227778</v>
+        <v>509.4775015606755</v>
       </c>
       <c r="R5">
-        <v>35.19717950905</v>
+        <v>4585.29751404608</v>
       </c>
       <c r="S5">
-        <v>0.001413766303970341</v>
+        <v>0.1296803131978445</v>
       </c>
       <c r="T5">
-        <v>0.001413766303970341</v>
+        <v>0.1296803131978445</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7647263333333334</v>
+        <v>140.9462586666667</v>
       </c>
       <c r="H6">
-        <v>2.294179</v>
+        <v>422.838776</v>
       </c>
       <c r="I6">
-        <v>0.004061943890521526</v>
+        <v>0.4325471797977271</v>
       </c>
       <c r="J6">
-        <v>0.004061943890521526</v>
+        <v>0.4325471797977271</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.743582</v>
+        <v>0.7162056666666667</v>
       </c>
       <c r="N6">
-        <v>2.230746</v>
+        <v>2.148617</v>
       </c>
       <c r="O6">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573968</v>
       </c>
       <c r="P6">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573967</v>
       </c>
       <c r="Q6">
-        <v>0.5686367363926667</v>
+        <v>100.9465091525325</v>
       </c>
       <c r="R6">
-        <v>5.117730627534</v>
+        <v>908.5185823727921</v>
       </c>
       <c r="S6">
-        <v>0.0002055640598174692</v>
+        <v>0.02569451032288706</v>
       </c>
       <c r="T6">
-        <v>0.0002055640598174692</v>
+        <v>0.02569451032288706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>85.81035100000001</v>
+        <v>0.1121686666666667</v>
       </c>
       <c r="H7">
-        <v>257.431053</v>
+        <v>0.336506</v>
       </c>
       <c r="I7">
-        <v>0.4557928971383111</v>
+        <v>0.0003442321980541679</v>
       </c>
       <c r="J7">
-        <v>0.4557928971383109</v>
+        <v>0.0003442321980541679</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.126590666666667</v>
+        <v>1.415809333333333</v>
       </c>
       <c r="N7">
-        <v>3.379772</v>
+        <v>4.247427999999999</v>
       </c>
       <c r="O7">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="P7">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="Q7">
-        <v>96.67314053999068</v>
+        <v>0.1588094451742222</v>
       </c>
       <c r="R7">
-        <v>870.0582648599161</v>
+        <v>1.429285006568</v>
       </c>
       <c r="S7">
-        <v>0.03494765985534651</v>
+        <v>4.042270468447051E-05</v>
       </c>
       <c r="T7">
-        <v>0.03494765985534651</v>
+        <v>4.042270468447052E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>85.81035100000001</v>
+        <v>0.1121686666666667</v>
       </c>
       <c r="H8">
-        <v>257.431053</v>
+        <v>0.336506</v>
       </c>
       <c r="I8">
-        <v>0.4557928971383111</v>
+        <v>0.0003442321980541679</v>
       </c>
       <c r="J8">
-        <v>0.4557928971383109</v>
+        <v>0.0003442321980541679</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>18.540154</v>
       </c>
       <c r="O8">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="P8">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="Q8">
-        <v>530.3123741113515</v>
+        <v>0.6932081179915557</v>
       </c>
       <c r="R8">
-        <v>4772.811367002163</v>
+        <v>6.238873061924001</v>
       </c>
       <c r="S8">
-        <v>0.1917096761727543</v>
+        <v>0.0001764463505788927</v>
       </c>
       <c r="T8">
-        <v>0.1917096761727543</v>
+        <v>0.0001764463505788927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>85.81035100000001</v>
+        <v>0.1121686666666667</v>
       </c>
       <c r="H9">
-        <v>257.431053</v>
+        <v>0.336506</v>
       </c>
       <c r="I9">
-        <v>0.4557928971383111</v>
+        <v>0.0003442321980541679</v>
       </c>
       <c r="J9">
-        <v>0.4557928971383109</v>
+        <v>0.0003442321980541679</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.528966</v>
+        <v>0.130008</v>
       </c>
       <c r="N9">
-        <v>4.586898</v>
+        <v>0.390024</v>
       </c>
       <c r="O9">
-        <v>0.1040596177090857</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="P9">
-        <v>0.1040596177090858</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="Q9">
-        <v>131.201109127066</v>
+        <v>0.014582824016</v>
       </c>
       <c r="R9">
-        <v>1180.809982143594</v>
+        <v>0.131245416144</v>
       </c>
       <c r="S9">
-        <v>0.04742963463072929</v>
+        <v>3.711852201345363E-06</v>
       </c>
       <c r="T9">
-        <v>0.04742963463072929</v>
+        <v>3.711852201345363E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>85.81035100000001</v>
+        <v>0.1121686666666667</v>
       </c>
       <c r="H10">
-        <v>257.431053</v>
+        <v>0.336506</v>
       </c>
       <c r="I10">
-        <v>0.4557928971383111</v>
+        <v>0.0003442321980541679</v>
       </c>
       <c r="J10">
-        <v>0.4557928971383109</v>
+        <v>0.0003442321980541679</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.113983333333334</v>
+        <v>3.614693333333333</v>
       </c>
       <c r="N10">
-        <v>15.34195</v>
+        <v>10.84408</v>
       </c>
       <c r="O10">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188437</v>
       </c>
       <c r="P10">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188436</v>
       </c>
       <c r="Q10">
-        <v>438.8327048414834</v>
+        <v>0.4054553316088889</v>
       </c>
       <c r="R10">
-        <v>3949.49434357335</v>
+        <v>3.64909798448</v>
       </c>
       <c r="S10">
-        <v>0.1586394733484192</v>
+        <v>0.0001032029367925185</v>
       </c>
       <c r="T10">
-        <v>0.1586394733484192</v>
+        <v>0.0001032029367925185</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>85.81035100000001</v>
+        <v>0.1121686666666667</v>
       </c>
       <c r="H11">
-        <v>257.431053</v>
+        <v>0.336506</v>
       </c>
       <c r="I11">
-        <v>0.4557928971383111</v>
+        <v>0.0003442321980541679</v>
       </c>
       <c r="J11">
-        <v>0.4557928971383109</v>
+        <v>0.0003442321980541679</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.743582</v>
+        <v>0.7162056666666667</v>
       </c>
       <c r="N11">
-        <v>2.230746</v>
+        <v>2.148617</v>
       </c>
       <c r="O11">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573968</v>
       </c>
       <c r="P11">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573967</v>
       </c>
       <c r="Q11">
-        <v>63.807032417282</v>
+        <v>0.08033583468911112</v>
       </c>
       <c r="R11">
-        <v>574.263291755538</v>
+        <v>0.7230225122020001</v>
       </c>
       <c r="S11">
-        <v>0.02306645313106174</v>
+        <v>2.044835379694088E-05</v>
       </c>
       <c r="T11">
-        <v>0.02306645313106174</v>
+        <v>2.044835379694088E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1121686666666667</v>
+        <v>184.79333</v>
       </c>
       <c r="H12">
-        <v>0.336506</v>
+        <v>554.37999</v>
       </c>
       <c r="I12">
-        <v>0.0005957985365674764</v>
+        <v>0.5671085880042187</v>
       </c>
       <c r="J12">
-        <v>0.0005957985365674764</v>
+        <v>0.5671085880042187</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.126590666666667</v>
+        <v>1.415809333333333</v>
       </c>
       <c r="N12">
-        <v>3.379772</v>
+        <v>4.247427999999999</v>
       </c>
       <c r="O12">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="P12">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="Q12">
-        <v>0.1263681729591111</v>
+        <v>261.6321213517466</v>
       </c>
       <c r="R12">
-        <v>1.137313556632</v>
+        <v>2354.68909216572</v>
       </c>
       <c r="S12">
-        <v>4.568251223088937E-05</v>
+        <v>0.06659476686522592</v>
       </c>
       <c r="T12">
-        <v>4.568251223088937E-05</v>
+        <v>0.06659476686522593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1121686666666667</v>
+        <v>184.79333</v>
       </c>
       <c r="H13">
-        <v>0.336506</v>
+        <v>554.37999</v>
       </c>
       <c r="I13">
-        <v>0.0005957985365674764</v>
+        <v>0.5671085880042187</v>
       </c>
       <c r="J13">
-        <v>0.0005957985365674764</v>
+        <v>0.5671085880042187</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>18.540154</v>
       </c>
       <c r="O13">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="P13">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="Q13">
-        <v>0.6932081179915556</v>
+        <v>1142.032265457607</v>
       </c>
       <c r="R13">
-        <v>6.238873061924</v>
+        <v>10278.29038911846</v>
       </c>
       <c r="S13">
-        <v>0.0002505970260323988</v>
+        <v>0.2906882078461098</v>
       </c>
       <c r="T13">
-        <v>0.0002505970260323988</v>
+        <v>0.2906882078461098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>184.79333</v>
+      </c>
+      <c r="H14">
+        <v>554.37999</v>
+      </c>
+      <c r="I14">
+        <v>0.5671085880042187</v>
+      </c>
+      <c r="J14">
+        <v>0.5671085880042187</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.1121686666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.336506</v>
-      </c>
-      <c r="I14">
-        <v>0.0005957985365674764</v>
-      </c>
-      <c r="J14">
-        <v>0.0005957985365674764</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>1.528966</v>
+        <v>0.130008</v>
       </c>
       <c r="N14">
-        <v>4.586898</v>
+        <v>0.390024</v>
       </c>
       <c r="O14">
-        <v>0.1040596177090857</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="P14">
-        <v>0.1040596177090858</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="Q14">
-        <v>0.1715020775986666</v>
+        <v>24.02461124664</v>
       </c>
       <c r="R14">
-        <v>1.543518698388</v>
+        <v>216.22150121976</v>
       </c>
       <c r="S14">
-        <v>6.199856794684434E-05</v>
+        <v>0.006115125989620749</v>
       </c>
       <c r="T14">
-        <v>6.199856794684434E-05</v>
+        <v>0.006115125989620749</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1121686666666667</v>
+        <v>184.79333</v>
       </c>
       <c r="H15">
-        <v>0.336506</v>
+        <v>554.37999</v>
       </c>
       <c r="I15">
-        <v>0.0005957985365674764</v>
+        <v>0.5671085880042187</v>
       </c>
       <c r="J15">
-        <v>0.0005957985365674764</v>
+        <v>0.5671085880042187</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.113983333333334</v>
+        <v>3.614693333333333</v>
       </c>
       <c r="N15">
-        <v>15.34195</v>
+        <v>10.84408</v>
       </c>
       <c r="O15">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188437</v>
       </c>
       <c r="P15">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188436</v>
       </c>
       <c r="Q15">
-        <v>0.5736286918555555</v>
+        <v>667.9712179954666</v>
       </c>
       <c r="R15">
-        <v>5.1626582267</v>
+        <v>6011.7409619592</v>
       </c>
       <c r="S15">
-        <v>0.0002073686682180612</v>
+        <v>0.1700226535842066</v>
       </c>
       <c r="T15">
-        <v>0.0002073686682180612</v>
+        <v>0.1700226535842065</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,371 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1121686666666667</v>
+        <v>184.79333</v>
       </c>
       <c r="H16">
-        <v>0.336506</v>
+        <v>554.37999</v>
       </c>
       <c r="I16">
-        <v>0.0005957985365674764</v>
+        <v>0.5671085880042187</v>
       </c>
       <c r="J16">
-        <v>0.0005957985365674764</v>
+        <v>0.5671085880042187</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.743582</v>
+        <v>0.7162056666666667</v>
       </c>
       <c r="N16">
-        <v>2.230746</v>
+        <v>2.148617</v>
       </c>
       <c r="O16">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573968</v>
       </c>
       <c r="P16">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573967</v>
       </c>
       <c r="Q16">
-        <v>0.08340660149733332</v>
+        <v>132.3500301082034</v>
       </c>
       <c r="R16">
-        <v>0.7506594134759998</v>
+        <v>1191.15027097383</v>
       </c>
       <c r="S16">
-        <v>3.015176213928263E-05</v>
+        <v>0.03368783371905567</v>
       </c>
       <c r="T16">
-        <v>3.015176213928263E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>101.5788536666667</v>
-      </c>
-      <c r="H17">
-        <v>304.736561</v>
-      </c>
-      <c r="I17">
-        <v>0.5395493604346</v>
-      </c>
-      <c r="J17">
-        <v>0.5395493604346</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.126590666666667</v>
-      </c>
-      <c r="N17">
-        <v>3.379772</v>
-      </c>
-      <c r="O17">
-        <v>0.07667442839667946</v>
-      </c>
-      <c r="P17">
-        <v>0.07667442839667946</v>
-      </c>
-      <c r="Q17">
-        <v>114.4377884715658</v>
-      </c>
-      <c r="R17">
-        <v>1029.940096244092</v>
-      </c>
-      <c r="S17">
-        <v>0.04136963880311693</v>
-      </c>
-      <c r="T17">
-        <v>0.04136963880311693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>101.5788536666667</v>
-      </c>
-      <c r="H18">
-        <v>304.736561</v>
-      </c>
-      <c r="I18">
-        <v>0.5395493604346</v>
-      </c>
-      <c r="J18">
-        <v>0.5395493604346</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>6.180051333333334</v>
-      </c>
-      <c r="N18">
-        <v>18.540154</v>
-      </c>
-      <c r="O18">
-        <v>0.4206069848310508</v>
-      </c>
-      <c r="P18">
-        <v>0.4206069848310508</v>
-      </c>
-      <c r="Q18">
-        <v>627.7625300411549</v>
-      </c>
-      <c r="R18">
-        <v>5649.862770370394</v>
-      </c>
-      <c r="S18">
-        <v>0.226938229659919</v>
-      </c>
-      <c r="T18">
-        <v>0.226938229659919</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>101.5788536666667</v>
-      </c>
-      <c r="H19">
-        <v>304.736561</v>
-      </c>
-      <c r="I19">
-        <v>0.5395493604346</v>
-      </c>
-      <c r="J19">
-        <v>0.5395493604346</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.528966</v>
-      </c>
-      <c r="N19">
-        <v>4.586898</v>
-      </c>
-      <c r="O19">
-        <v>0.1040596177090857</v>
-      </c>
-      <c r="P19">
-        <v>0.1040596177090858</v>
-      </c>
-      <c r="Q19">
-        <v>155.3106135753087</v>
-      </c>
-      <c r="R19">
-        <v>1397.795522177778</v>
-      </c>
-      <c r="S19">
-        <v>0.05614530018200619</v>
-      </c>
-      <c r="T19">
-        <v>0.0561453001820062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>101.5788536666667</v>
-      </c>
-      <c r="H20">
-        <v>304.736561</v>
-      </c>
-      <c r="I20">
-        <v>0.5395493604346</v>
-      </c>
-      <c r="J20">
-        <v>0.5395493604346</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>5.113983333333334</v>
-      </c>
-      <c r="N20">
-        <v>15.34195</v>
-      </c>
-      <c r="O20">
-        <v>0.34805165754981</v>
-      </c>
-      <c r="P20">
-        <v>0.34805165754981</v>
-      </c>
-      <c r="Q20">
-        <v>519.4725646704388</v>
-      </c>
-      <c r="R20">
-        <v>4675.25308203395</v>
-      </c>
-      <c r="S20">
-        <v>0.1877910492292024</v>
-      </c>
-      <c r="T20">
-        <v>0.1877910492292024</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>101.5788536666667</v>
-      </c>
-      <c r="H21">
-        <v>304.736561</v>
-      </c>
-      <c r="I21">
-        <v>0.5395493604346</v>
-      </c>
-      <c r="J21">
-        <v>0.5395493604346</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.743582</v>
-      </c>
-      <c r="N21">
-        <v>2.230746</v>
-      </c>
-      <c r="O21">
-        <v>0.05060731151337401</v>
-      </c>
-      <c r="P21">
-        <v>0.05060731151337401</v>
-      </c>
-      <c r="Q21">
-        <v>75.53220716716733</v>
-      </c>
-      <c r="R21">
-        <v>679.789864504506</v>
-      </c>
-      <c r="S21">
-        <v>0.02730514256035551</v>
-      </c>
-      <c r="T21">
-        <v>0.02730514256035551</v>
+        <v>0.03368783371905567</v>
       </c>
     </row>
   </sheetData>
